--- a/Concepts/CCoding.xlsx
+++ b/Concepts/CCoding.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23617"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a81230d310ee9045/1_current/cp/concepts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="934" documentId="8_{7C211BAF-7862-45CC-A644-BA56ED3D30CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30CDE22D-88E0-44CB-BD7E-79F55AE54147}"/>
+  <xr:revisionPtr revIDLastSave="1270" documentId="8_{7C211BAF-7862-45CC-A644-BA56ED3D30CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E75EFDEE-5FB6-416F-B506-34B6DACA5D3D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4DFCC618-C6EC-4B27-AAE2-E94F2E278B85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DFCC618-C6EC-4B27-AAE2-E94F2E278B85}"/>
   </bookViews>
   <sheets>
     <sheet name="entries" sheetId="1" r:id="rId1"/>
     <sheet name="analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="progress" sheetId="3" r:id="rId3"/>
+    <sheet name="two pointers" sheetId="4" r:id="rId3"/>
+    <sheet name="progress" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="62" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,6 +46,7 @@
     <author>tc={5D5D8DF2-80D7-4DAE-A085-41746B480749}</author>
     <author>tc={F8F78A37-542F-4D66-802D-FDEEAD85BA46}</author>
     <author>tc={015AAFD4-D68F-4275-ACE6-86FCAB5B2AC8}</author>
+    <author>tc={88101367-5C00-404C-87D3-0EE8C53F6062}</author>
     <author>tc={1D7DFC07-A562-4B58-A72A-FD0B35D7156F}</author>
   </authors>
   <commentList>
@@ -79,7 +82,15 @@
     I feel like an idiot for not able to get the logic right away. :(</t>
       </text>
     </comment>
-    <comment ref="C128" authorId="4" shapeId="0" xr:uid="{1D7DFC07-A562-4B58-A72A-FD0B35D7156F}">
+    <comment ref="C137" authorId="4" shapeId="0" xr:uid="{88101367-5C00-404C-87D3-0EE8C53F6062}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I don't understand how this is working?</t>
+      </text>
+    </comment>
+    <comment ref="C152" authorId="5" shapeId="0" xr:uid="{1D7DFC07-A562-4B58-A72A-FD0B35D7156F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,8 +102,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="306">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +145,9 @@
     <t>Topics</t>
   </si>
   <si>
+    <t>Tags</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -145,6 +181,9 @@
     <t xml:space="preserve">Product of Array Except Self </t>
   </si>
   <si>
+    <t>brute</t>
+  </si>
+  <si>
     <t>cummulative</t>
   </si>
   <si>
@@ -157,15 +196,15 @@
     <t>Spiral Matrix</t>
   </si>
   <si>
-    <t>brute</t>
-  </si>
-  <si>
     <t>Next Permutation</t>
   </si>
   <si>
     <t>Jump Game</t>
   </si>
   <si>
+    <t>dp</t>
+  </si>
+  <si>
     <t>array, greedy, dp</t>
   </si>
   <si>
@@ -217,9 +256,15 @@
     <t>Binary Tree Inorder Traversal</t>
   </si>
   <si>
+    <t>stack</t>
+  </si>
+  <si>
     <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
   </si>
   <si>
+    <t>recursion</t>
+  </si>
+  <si>
     <t>Vertical Order Traversal of a Binary Tree</t>
   </si>
   <si>
@@ -229,9 +274,6 @@
     <t>Edit Distance</t>
   </si>
   <si>
-    <t>dp</t>
-  </si>
-  <si>
     <t>Word Break</t>
   </si>
   <si>
@@ -256,30 +298,51 @@
     <t>Number of Longest Increasing Subsequence</t>
   </si>
   <si>
+    <t>arrays</t>
+  </si>
+  <si>
     <t>Flip Equivalent Binary Trees</t>
   </si>
   <si>
     <t xml:space="preserve">Word Ladder </t>
   </si>
   <si>
+    <t>bfs</t>
+  </si>
+  <si>
     <t>graph</t>
   </si>
   <si>
     <t xml:space="preserve">Course Schedule </t>
   </si>
   <si>
+    <t>dfs</t>
+  </si>
+  <si>
     <t>Clone graph</t>
   </si>
   <si>
     <t>Longest Increasing Path in a Matrix</t>
   </si>
   <si>
+    <t>longest path</t>
+  </si>
+  <si>
     <t>k-Amazing Numbers</t>
   </si>
   <si>
+    <t>hashing, monotonic</t>
+  </si>
+  <si>
+    <t>store vector of locations for each integer</t>
+  </si>
+  <si>
     <t>Subarray Sum Equals K</t>
   </si>
   <si>
+    <t>subarray</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reverse Nodes in k-Group </t>
   </si>
   <si>
@@ -289,6 +352,9 @@
     <t xml:space="preserve">Copy List with Random Pointer </t>
   </si>
   <si>
+    <t>copy structure</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reverse Linked List </t>
   </si>
   <si>
@@ -304,102 +370,108 @@
     <t xml:space="preserve">Make Them Equal </t>
   </si>
   <si>
+    <t>perfect fit question for a puzzle</t>
+  </si>
+  <si>
     <t>Letter Combinations of a Phone Number</t>
   </si>
   <si>
-    <t>recursion</t>
-  </si>
-  <si>
     <t>Generate Parenthesis</t>
   </si>
   <si>
     <t>Wildcard Matching</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Maximum Number of Achievable Transfer Requests</t>
+  </si>
+  <si>
+    <t>Throne Inheritance</t>
+  </si>
+  <si>
+    <t>Subarray Product Less Than K</t>
+  </si>
+  <si>
+    <t>sliding window</t>
+  </si>
+  <si>
+    <t>Largest Number</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Intervals </t>
+  </si>
+  <si>
+    <t>sort, unkown</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>two pointers</t>
+  </si>
+  <si>
+    <t>sort, search</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Substring Without Repeating Characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement strStr() </t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Window Substring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Anagrams </t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Longest Valid Parenthesis</t>
+  </si>
+  <si>
+    <t>string, greedy</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>string, unknown</t>
+  </si>
+  <si>
+    <t>Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>Word Search II</t>
-  </si>
-  <si>
-    <t>Maximum Number of Achievable Transfer Requests</t>
-  </si>
-  <si>
-    <t>Throne Inheritance</t>
-  </si>
-  <si>
-    <t>Subarray Product Less Than K</t>
-  </si>
-  <si>
-    <t>sliding window</t>
-  </si>
-  <si>
-    <t>Largest Number</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Intervals </t>
-  </si>
-  <si>
-    <t>sort, unkown</t>
-  </si>
-  <si>
-    <t>Sort Colors</t>
-  </si>
-  <si>
-    <t>sort, search</t>
-  </si>
-  <si>
-    <t>Search a 2D Matrix</t>
-  </si>
-  <si>
-    <t>Search a 2D Matrix II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Substring Without Repeating Characters </t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement strStr() </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Window Substring </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Anagrams </t>
-  </si>
-  <si>
-    <t>Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t>Longest Valid Parenthesis</t>
-  </si>
-  <si>
-    <t>string, greedy</t>
-  </si>
-  <si>
-    <t>Populating Next Right Pointers in Each Node</t>
-  </si>
-  <si>
-    <t>Populating Next Right Pointers in Each Node II</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>string, unknown</t>
-  </si>
-  <si>
-    <t>Count Complete Tree Nodes</t>
-  </si>
-  <si>
-    <t>Evaluate Division</t>
-  </si>
-  <si>
     <t>Find All Duplicates in an Array</t>
   </si>
   <si>
@@ -436,6 +508,9 @@
     <t>Color the fence</t>
   </si>
   <si>
+    <t>filling</t>
+  </si>
+  <si>
     <t>greedy, implementation</t>
   </si>
   <si>
@@ -448,12 +523,12 @@
     <t>Next Greater Node in Linked List</t>
   </si>
   <si>
-    <t>stack</t>
-  </si>
-  <si>
     <t>Interleaving String</t>
   </si>
   <si>
+    <t>string dp</t>
+  </si>
+  <si>
     <t>Minimum Area Rectangle</t>
   </si>
   <si>
@@ -469,12 +544,24 @@
     <t>Maximum Gap</t>
   </si>
   <si>
+    <t>bucket</t>
+  </si>
+  <si>
     <t>puzzle, sort</t>
   </si>
   <si>
     <t>Minimum Number of Arrows to Burst Balloons</t>
   </si>
   <si>
+    <t>intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Median </t>
+  </si>
+  <si>
+    <t>math, puzzle</t>
+  </si>
+  <si>
     <t>The Hard Work of Paparazzi</t>
   </si>
   <si>
@@ -487,78 +574,429 @@
     <t>greedy, strings, implementation</t>
   </si>
   <si>
-    <t xml:space="preserve">Count Median </t>
-  </si>
-  <si>
-    <t>math, puzzle</t>
+    <t>First missing positive</t>
   </si>
   <si>
     <t>Remove Duplicate Letters</t>
   </si>
   <si>
-    <t>First missing positive</t>
-  </si>
-  <si>
     <t>GCD on Blackboard</t>
   </si>
   <si>
+    <t>One Stroke Path</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>Practical Skill Test</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>divide &amp; conquer</t>
+  </si>
+  <si>
+    <t>finding previous while iterating linked list</t>
+  </si>
+  <si>
     <t>Strings of Impurity</t>
   </si>
   <si>
-    <t>Sort List</t>
-  </si>
-  <si>
-    <t>finding previous while iterating linked list</t>
-  </si>
-  <si>
-    <t>Practical Skill Test</t>
-  </si>
-  <si>
-    <t>One Stroke Path</t>
-  </si>
-  <si>
-    <t>backtracking</t>
+    <t>House Robber II</t>
   </si>
   <si>
     <t>Successive Subtraction</t>
   </si>
   <si>
-    <t>House Robber II</t>
-  </si>
-  <si>
     <t>Balance a Binary Search Tree</t>
   </si>
   <si>
+    <t>Takahashi Unevolved</t>
+  </si>
+  <si>
     <t>Split Two Strings to Make Palindrome</t>
   </si>
   <si>
+    <t>Best Team with no Conflicts</t>
+  </si>
+  <si>
+    <t>Like longest increasing subsequence</t>
+  </si>
+  <si>
+    <t>Allocate Mailboxes</t>
+  </si>
+  <si>
+    <t>remember, difficult</t>
+  </si>
+  <si>
+    <t>brute force dp (iterating over previous dp)</t>
+  </si>
+  <si>
+    <t>Linova and Kingdom</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>Asteroid Collision</t>
+  </si>
+  <si>
+    <t>K-Distinct Groups</t>
+  </si>
+  <si>
+    <t>Path with Maximum gold</t>
+  </si>
+  <si>
+    <t>Country Roads</t>
+  </si>
+  <si>
+    <t>Distributed Systems</t>
+  </si>
+  <si>
+    <t>shortest path</t>
+  </si>
+  <si>
+    <t>dijkstra's algorithm</t>
+  </si>
+  <si>
     <t>Regular Expression Matching</t>
   </si>
   <si>
+    <t>simple dp</t>
+  </si>
+  <si>
+    <t>simple regex matching</t>
+  </si>
+  <si>
+    <t>Partition String</t>
+  </si>
+  <si>
+    <t>Bandit in a City</t>
+  </si>
+  <si>
+    <t>remember, game</t>
+  </si>
+  <si>
+    <t>Distinct Islands</t>
+  </si>
+  <si>
+    <t>connected components</t>
+  </si>
+  <si>
+    <t>Non-Overlapping Pairs of Sublists</t>
+  </si>
+  <si>
+    <t>editorial was nice by goffie</t>
+  </si>
+  <si>
+    <t>Shortest Common Supersequence</t>
+  </si>
+  <si>
+    <t>Points on a Line</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>line, points, O(n^2)</t>
+  </si>
+  <si>
+    <t>maximum number of colinear points</t>
+  </si>
+  <si>
+    <t>Grouper</t>
+  </si>
+  <si>
+    <t>group all 1's together</t>
+  </si>
+  <si>
+    <t>Bunnyhopping</t>
+  </si>
+  <si>
+    <t>jumping</t>
+  </si>
+  <si>
+    <t>Minimum Spanning Tree</t>
+  </si>
+  <si>
+    <t>mst, kruskal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Count Substrings That Differ by One Character</t>
+  </si>
+  <si>
+    <t>optimization</t>
+  </si>
+  <si>
+    <t>useful editorial</t>
+  </si>
+  <si>
+    <t>Number of ways to form a Target String Given a Dictionary</t>
+  </si>
+  <si>
+    <t>Spreadsheets</t>
+  </si>
+  <si>
+    <t>Annoying</t>
+  </si>
+  <si>
+    <t>Traveling Salesman among Aerial Cities</t>
+  </si>
+  <si>
+    <t>Caesar's Legions</t>
+  </si>
+  <si>
+    <t>Median of two sorted arrays</t>
+  </si>
+  <si>
     <t>Recover Binary Search Tree</t>
   </si>
   <si>
-    <t>Median of two sorted arrays</t>
-  </si>
-  <si>
     <t>Count Subtrees With Max Distance Between Cities</t>
   </si>
   <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Allocate Mailboxes</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Graph Connectivity with threshold</t>
+  </si>
+  <si>
+    <t>Folia</t>
+  </si>
+  <si>
+    <t>Cheapest Bus Route</t>
+  </si>
+  <si>
+    <t>0-1 BFS</t>
+  </si>
+  <si>
+    <t>Window Queries</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>Peak Heights</t>
+  </si>
+  <si>
+    <t>length of shortest path from nearest zero</t>
+  </si>
+  <si>
+    <t>Walled Off</t>
+  </si>
+  <si>
+    <t>minimum number of new walls to block the path</t>
+  </si>
+  <si>
+    <t>Divisible Numbers</t>
+  </si>
+  <si>
+    <t>inclusion-exclusion</t>
+  </si>
+  <si>
+    <t>inclusion-exclusion principle</t>
+  </si>
+  <si>
+    <t>K Maximum Non-overlapping Sums</t>
+  </si>
+  <si>
+    <t>subarray, remember</t>
+  </si>
+  <si>
+    <t>Increasing Subsequences of Size k</t>
+  </si>
+  <si>
+    <t>increasing order, subsequences</t>
+  </si>
+  <si>
+    <t>number of strictly increasing subsequences of size k</t>
+  </si>
+  <si>
+    <t>Hop Cost</t>
+  </si>
+  <si>
+    <t>Transformable Teacher</t>
+  </si>
+  <si>
+    <t>Planar Edges</t>
+  </si>
+  <si>
+    <t>cycle, permutation, catalan number</t>
+  </si>
+  <si>
+    <t>Sell Diminishing-Valued Colored Balls</t>
+  </si>
+  <si>
+    <t>Wandering</t>
+  </si>
+  <si>
+    <t>prefix max</t>
+  </si>
+  <si>
+    <t>Akari</t>
+  </si>
+  <si>
+    <t>number of lit cells, cells may contain light bulbs or blocks</t>
+  </si>
+  <si>
+    <t>Valid payments</t>
+  </si>
+  <si>
+    <t>Big square</t>
+  </si>
+  <si>
+    <t>largest square</t>
+  </si>
+  <si>
+    <t>largest square containing all ones</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>union find</t>
+  </si>
+  <si>
+    <t>two participants can communicate if they have at least one language in common</t>
+  </si>
+  <si>
+    <t>Job Scheduling to Maximize Profit</t>
+  </si>
+  <si>
+    <t>intervals, good, O(n^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only one job at a time, find the maximum profit </t>
+  </si>
+  <si>
+    <t>Longest Increasing Path</t>
+  </si>
+  <si>
+    <t>memoization</t>
+  </si>
+  <si>
+    <t>longest increasing path</t>
+  </si>
+  <si>
+    <t>longest increasing path in a matrix, you can go in all four directions</t>
+  </si>
+  <si>
+    <t>Adjacent Differences</t>
+  </si>
+  <si>
+    <t>gaps</t>
+  </si>
+  <si>
+    <t>you can remove at most k integers, minimize the maximum gap between consecutive integers</t>
+  </si>
+  <si>
+    <t>Catching Cheaters</t>
+  </si>
+  <si>
+    <t>find the minimum similarity score among all the substrings, score(c,d) = 4 * lcs(c,d) - c - d</t>
+  </si>
+  <si>
+    <t>Knapsack</t>
+  </si>
+  <si>
+    <t>find combination such that their sum is between ceil(w/2) and w</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Reduce X to Zero</t>
+  </si>
+  <si>
+    <t>take out first or the last element from array and add it to the sum. try to make X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max multiplied Pairings </t>
+  </si>
+  <si>
+    <t>product, remember</t>
+  </si>
+  <si>
+    <t>pair integers among two lists so that their sum of multiplication is maximum</t>
+  </si>
+  <si>
+    <t>CPU Scheduling</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>given tasks with id, queue time, and duration. at any time cpu chooses task with minimum duration. find the order of the tasks execution</t>
+  </si>
+  <si>
+    <t>Unique string Split</t>
+  </si>
+  <si>
+    <t>#partitions (s = a + b + c) such that a + b, b + c, and c + a are all distinct</t>
+  </si>
+  <si>
+    <t>Suffix problem</t>
+  </si>
+  <si>
+    <t>segment tree</t>
+  </si>
+  <si>
+    <t>trie, segment tree</t>
+  </si>
+  <si>
+    <t>Pattern Matching</t>
+  </si>
+  <si>
+    <t>Cactus Graph</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>find cycles and their lengths</t>
+  </si>
+  <si>
+    <t>Water Heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interval, cummulative, increment - decrement </t>
+  </si>
+  <si>
+    <t>we need p_i during s_i to t_i time. we have total capacity of w, can we support?</t>
+  </si>
+  <si>
+    <t>Queen on the Grid</t>
+  </si>
+  <si>
+    <t>cummulative, counting</t>
+  </si>
+  <si>
+    <t>queen can travel to right, down, diagonal right down any length but not over obstacle, find the number of possible paths to h, w</t>
+  </si>
+  <si>
+    <t>Ways to make a Fair array</t>
+  </si>
+  <si>
+    <t>you can remove exactly one element to make sum of even and odd positions same. How many choices do you have?</t>
+  </si>
+  <si>
+    <t>Jumps</t>
+  </si>
+  <si>
+    <t>Binary Table (Easy Version)</t>
+  </si>
+  <si>
+    <t>Longest substring with at least k characters</t>
   </si>
   <si>
     <t>Paradigms</t>
   </si>
   <si>
-    <t>divide &amp; conquer</t>
-  </si>
-  <si>
     <t>(All)</t>
   </si>
   <si>
@@ -574,60 +1012,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Traveling Salesman among Aerial Cities</t>
-  </si>
-  <si>
-    <t>Takahashi Unevolved</t>
-  </si>
-  <si>
-    <t>matrix</t>
-  </si>
-  <si>
-    <t>Best Team with no Conflicts</t>
-  </si>
-  <si>
-    <t>Like longest increasing subsequence</t>
-  </si>
-  <si>
-    <t>Graph Connectivity with threshold</t>
-  </si>
-  <si>
-    <t>brute force dp (iterating over previous dp)</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>remember, difficult</t>
-  </si>
-  <si>
-    <t>Caesar's Legions</t>
-  </si>
-  <si>
-    <t>Linova and Kingdom</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>Spreadsheets</t>
-  </si>
-  <si>
-    <t>Annoying</t>
-  </si>
-  <si>
-    <t>Folia</t>
-  </si>
-  <si>
-    <t>Asteroid Collision</t>
-  </si>
-  <si>
-    <t>Path with Maximum gold</t>
-  </si>
-  <si>
     <t>Jul</t>
   </si>
   <si>
@@ -640,166 +1024,34 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>K-Distinct Groups</t>
-  </si>
-  <si>
-    <t>Partition String</t>
-  </si>
-  <si>
-    <t>intervals</t>
-  </si>
-  <si>
-    <t>Country Roads</t>
-  </si>
-  <si>
-    <t>bfs</t>
-  </si>
-  <si>
-    <t>Distributed Systems</t>
-  </si>
-  <si>
-    <t>shortest path</t>
-  </si>
-  <si>
-    <t>dijkstra's algorithm</t>
-  </si>
-  <si>
-    <t>bucket</t>
-  </si>
-  <si>
-    <t>Bandit in a City</t>
-  </si>
-  <si>
-    <t>dfs</t>
-  </si>
-  <si>
-    <t>remember, game</t>
-  </si>
-  <si>
-    <t>Non-Overlapping Pairs of Sublists</t>
-  </si>
-  <si>
-    <t>subarray</t>
-  </si>
-  <si>
-    <t>editorial was nice by goffie</t>
-  </si>
-  <si>
-    <t>Shortest Common Supersequence</t>
-  </si>
-  <si>
-    <t>Distinct Islands</t>
-  </si>
-  <si>
-    <t>connected components</t>
-  </si>
-  <si>
-    <t>Cheapest Bus Route</t>
-  </si>
-  <si>
-    <t>0-1 BFS</t>
-  </si>
-  <si>
-    <t>Points on a Line</t>
-  </si>
-  <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>line, points</t>
-  </si>
-  <si>
-    <t>maximum number of colinear points</t>
-  </si>
-  <si>
-    <t>Bunnyhopping</t>
-  </si>
-  <si>
-    <t>Grouper</t>
-  </si>
-  <si>
-    <t>Minimum Spanning Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>simple regex matching</t>
-  </si>
-  <si>
-    <t>simple dp</t>
-  </si>
-  <si>
-    <t>store vector of locations for each integer</t>
-  </si>
-  <si>
-    <t>hashing, monotonic</t>
-  </si>
-  <si>
-    <t>perfect fit question for a puzzle</t>
-  </si>
-  <si>
-    <t>arrays</t>
-  </si>
-  <si>
-    <t>string dp</t>
-  </si>
-  <si>
-    <t>longest path</t>
-  </si>
-  <si>
-    <t>copy structure</t>
-  </si>
-  <si>
-    <t>group all 1's together</t>
-  </si>
-  <si>
-    <t>jumping</t>
-  </si>
-  <si>
-    <t>mst, kruskal</t>
-  </si>
-  <si>
-    <t>Count Substrings That Differ by One Character</t>
-  </si>
-  <si>
-    <t>useful editorial</t>
-  </si>
-  <si>
-    <t>optimization</t>
-  </si>
-  <si>
     <t>Nov</t>
   </si>
   <si>
-    <t>Number of ways to form a Target String Given a Dictionary</t>
-  </si>
-  <si>
-    <t>filling</t>
-  </si>
-  <si>
-    <t>Window Queries</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>Peak Heights</t>
-  </si>
-  <si>
-    <t>length of shortest path from nearest zero</t>
-  </si>
-  <si>
-    <t>Walled Off</t>
-  </si>
-  <si>
-    <t>minimum number of new walls to block the path</t>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>recursion, two pointers</t>
+  </si>
+  <si>
+    <t>Quality of chocolates</t>
+  </si>
+  <si>
+    <t>sorting</t>
+  </si>
+  <si>
+    <t>3 types of tickets</t>
+  </si>
+  <si>
+    <t>interview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -850,7 +1102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -911,21 +1163,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -948,8 +1191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -987,22 +1228,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -1026,62 +1268,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1108,17 +1294,11 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1136,6 +1316,38 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1145,6 +1357,16 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1161,6 +1383,16 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1203,6 +1435,68 @@
 </styleSheet>
 </file>
 
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <namedSheetView name="binary search" id="{3FCD7C61-A0A3-485B-990E-E4362BB661B7}">
+    <nsvFilter filterId="{A32FE18D-2266-4655-8147-C9AD3D5DB989}" ref="B2:I165" tableId="1">
+      <columnFilter colId="2" id="{37BE3213-F99F-4E12-B6B9-D086849153D6}">
+        <filter colId="2">
+          <x:filters>
+            <x:filter val="binary search"/>
+          </x:filters>
+        </filter>
+      </columnFilter>
+      <sortRules>
+        <sortRule colId="0" id="{1F58498A-5B19-4EDC-8FB5-1942E1A9C51E}">
+          <sortCondition ref="B2:B165"/>
+        </sortRule>
+      </sortRules>
+    </nsvFilter>
+  </namedSheetView>
+  <namedSheetView name="Dp questions" id="{6A2B5739-7C86-4119-AD97-DAB18A6F74A9}">
+    <nsvFilter filterId="{A32FE18D-2266-4655-8147-C9AD3D5DB989}" ref="B2:I165" tableId="1">
+      <columnFilter colId="2" id="{37BE3213-F99F-4E12-B6B9-D086849153D6}">
+        <filter colId="2">
+          <x:filters>
+            <x:filter val="dp"/>
+          </x:filters>
+        </filter>
+      </columnFilter>
+      <sortRules>
+        <sortRule colId="0" id="{1F58498A-5B19-4EDC-8FB5-1942E1A9C51E}">
+          <sortCondition ref="B2:B165"/>
+        </sortRule>
+      </sortRules>
+    </nsvFilter>
+  </namedSheetView>
+  <namedSheetView name="Everything View" id="{5F4BE59D-A104-4184-82CC-6F3233496FB3}">
+    <nsvFilter filterId="{A32FE18D-2266-4655-8147-C9AD3D5DB989}" ref="B2:I165" tableId="1">
+      <sortRules>
+        <sortRule colId="0" id="{1F58498A-5B19-4EDC-8FB5-1942E1A9C51E}">
+          <sortCondition ref="B2:B165"/>
+        </sortRule>
+      </sortRules>
+    </nsvFilter>
+  </namedSheetView>
+  <namedSheetView name="Greedy" id="{1B65480B-22CD-432A-99CD-558185F7AC8D}">
+    <nsvFilter filterId="{A32FE18D-2266-4655-8147-C9AD3D5DB989}" ref="B2:I165" tableId="1">
+      <columnFilter colId="2" id="{37BE3213-F99F-4E12-B6B9-D086849153D6}">
+        <filter colId="2">
+          <x:filters>
+            <x:filter val="greedy"/>
+          </x:filters>
+        </filter>
+      </columnFilter>
+      <sortRules>
+        <sortRule colId="0" id="{1F58498A-5B19-4EDC-8FB5-1942E1A9C51E}">
+          <sortCondition ref="B2:B165"/>
+        </sortRule>
+      </sortRules>
+    </nsvFilter>
+  </namedSheetView>
+</namedSheetViews>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="akhil nichenametla" id="{33724646-1F5A-47B5-9829-E0B3001E1B84}" userId="akhil nichenametla" providerId="None"/>
@@ -1210,13 +1504,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="akhil nichenametla" refreshedDate="44136.762986689813" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="129" xr:uid="{25F3E49E-E46A-4A55-BDDC-F45E490B7DB2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="akhil nichenametla" refreshedDate="44174.36305763889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="163" xr:uid="{25F3E49E-E46A-4A55-BDDC-F45E490B7DB2}">
   <cacheSource type="worksheet">
     <worksheetSource name="entries"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="16">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-07-25T00:00:00" maxDate="2020-11-02T00:00:00" count="95">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-07-25T00:00:00" maxDate="2020-12-10T00:00:00" count="110">
         <d v="2020-07-25T00:00:00"/>
         <d v="2020-07-26T00:00:00"/>
         <d v="2020-07-27T00:00:00"/>
@@ -1310,11 +1604,26 @@
         <d v="2020-10-26T00:00:00"/>
         <d v="2020-10-30T00:00:00"/>
         <d v="2020-10-31T00:00:00"/>
+        <d v="2020-11-01T00:00:00"/>
+        <d v="2020-11-05T00:00:00"/>
+        <d v="2020-11-06T00:00:00"/>
+        <d v="2020-11-08T00:00:00"/>
+        <d v="2020-11-09T00:00:00"/>
+        <d v="2020-11-10T00:00:00"/>
+        <d v="2020-11-11T00:00:00"/>
+        <d v="2020-11-16T00:00:00"/>
+        <d v="2020-11-17T00:00:00"/>
+        <d v="2020-11-18T00:00:00"/>
+        <d v="2020-11-21T00:00:00"/>
+        <d v="2020-11-25T00:00:00"/>
+        <d v="2020-11-27T00:00:00"/>
+        <d v="2020-11-30T00:00:00"/>
+        <d v="2020-12-01T00:00:00"/>
+        <d v="2020-12-09T00:00:00"/>
         <m/>
-        <d v="2020-11-01T00:00:00"/>
       </sharedItems>
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2020-07-25T00:00:00" endDate="2020-11-02T00:00:00"/>
+        <rangePr groupBy="months" startDate="2020-07-25T00:00:00" endDate="2020-12-10T00:00:00"/>
         <groupItems count="14">
           <s v="(blank)"/>
           <s v="Jan"/>
@@ -1329,12 +1638,12 @@
           <s v="Oct"/>
           <s v="Nov"/>
           <s v="Dec"/>
-          <s v="&gt;11/2/2020"/>
+          <s v="&gt;12/10/2020"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Title" numFmtId="0">
-      <sharedItems containsBlank="1" count="130">
+      <sharedItems containsBlank="1" count="164">
         <s v="3Sum "/>
         <s v="3Sum Closest "/>
         <s v="Rotate Image "/>
@@ -1453,22 +1762,56 @@
         <s v="Minimum Spanning Tree"/>
         <s v="Count Substrings That Differ by One Character"/>
         <s v="Number of ways to form a Target String Given a Dictionary"/>
+        <s v="Window Queries"/>
+        <s v="Peak Heights"/>
+        <s v="Walled Off"/>
+        <s v="K Maximum Non-overlapping Sums"/>
+        <s v="Divisible Numbers"/>
+        <s v="Increasing Subsequences of Size k"/>
+        <s v="Hop Cost"/>
+        <s v="Wandering"/>
+        <s v="Akari"/>
+        <s v="Big square"/>
+        <s v="Interpretation"/>
+        <s v="Job Scheduling to Maximize Profit"/>
+        <s v="Longest Increasing Path"/>
+        <s v="Catching Cheaters"/>
+        <s v="Knapsack"/>
+        <s v="Minimum Operations to Reduce X to Zero"/>
+        <s v="Max multiplied Pairings "/>
+        <s v="CPU Scheduling"/>
+        <s v="Unique string Split"/>
+        <s v="Suffix problem"/>
+        <s v="Water Heater"/>
+        <s v="Queen on the Grid"/>
+        <s v="Jumps"/>
+        <s v="Ways to make a Fair array"/>
+        <s v="Binary Table (Easy Version)"/>
+        <s v="3 types of tickets"/>
         <s v="Spreadsheets"/>
-        <s v="Traveling Salesman among Aerial Cities"/>
-        <s v="Caesar's Legions"/>
         <s v="Median of two sorted arrays"/>
         <s v="Recover Binary Search Tree"/>
         <s v="Count Subtrees With Max Distance Between Cities"/>
         <s v="Graph Connectivity with threshold"/>
         <s v="Folia"/>
         <s v="Cheapest Bus Route"/>
-        <s v="Window Queries"/>
-        <s v="Peak Heights"/>
-        <m u="1"/>
+        <s v="Transformable Teacher"/>
+        <s v="Planar Edges"/>
+        <s v="Sell Diminishing-Valued Colored Balls"/>
+        <s v="Traveling Salesman among Aerial Cities"/>
+        <s v="Adjacent Differences"/>
+        <s v="Caesar's Legions"/>
+        <s v="Pattern Matching"/>
+        <s v="Cactus Graph"/>
+        <s v="Valid payments"/>
+        <s v="Longest substring with at least k characters"/>
+        <s v="Quality of chocolates"/>
+        <m/>
+        <s v="Planaer Edges" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="paradigm" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="12">
         <s v="hashing"/>
         <s v="greedy"/>
         <s v="puzzle"/>
@@ -1479,11 +1822,12 @@
         <s v="concept"/>
         <s v="backtracking"/>
         <s v="divide &amp; conquer"/>
+        <s v="implementation" u="1"/>
         <s v="cummulative" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="technique" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
+      <sharedItems containsBlank="1" count="22">
         <m/>
         <s v="cummulative"/>
         <s v="dp"/>
@@ -1492,11 +1836,20 @@
         <s v="bfs"/>
         <s v="dfs"/>
         <s v="hashing"/>
+        <s v="two pointers"/>
         <s v="filling"/>
         <s v="concept"/>
         <s v="bucket"/>
         <s v="greedy"/>
         <s v="optimization"/>
+        <s v="inclusion-exclusion"/>
+        <s v="union find"/>
+        <s v="binary search"/>
+        <s v="memoization"/>
+        <s v="simulation"/>
+        <s v="segment tree"/>
+        <s v="implementation"/>
+        <s v="sliding window" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Points" numFmtId="0">
@@ -1557,15 +1910,15 @@
         <m/>
         <s v="tree"/>
         <s v="geometry"/>
+        <s v="string, hashing" u="1"/>
+        <s v="graph, recursion" u="1"/>
+        <s v="array, cummulative" u="1"/>
         <s v="dp, unknown" u="1"/>
-        <s v="string, hashing" u="1"/>
+        <s v="greedy, intervals" u="1"/>
         <s v="bst, stack" u="1"/>
-        <s v="graph, recursion" u="1"/>
         <s v="matrix, hashing" u="1"/>
-        <s v="array, cummulative" u="1"/>
+        <s v="linked list, divide &amp; conquer" u="1"/>
         <s v="binary search" u="1"/>
-        <s v="linked list, divide &amp; conquer" u="1"/>
-        <s v="greedy, intervals" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Tags" numFmtId="0">
@@ -1584,7 +1937,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="129">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="163">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1958,8 +2311,8 @@
   <r>
     <x v="37"/>
     <x v="37"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="15"/>
     <m/>
@@ -2038,8 +2391,8 @@
   <r>
     <x v="45"/>
     <x v="45"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="17"/>
     <m/>
@@ -2118,8 +2471,8 @@
   <r>
     <x v="53"/>
     <x v="53"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
     <x v="0"/>
     <x v="22"/>
     <m/>
@@ -2148,8 +2501,8 @@
   <r>
     <x v="56"/>
     <x v="56"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="0"/>
     <x v="18"/>
     <m/>
@@ -2158,7 +2511,7 @@
   <r>
     <x v="57"/>
     <x v="57"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="0"/>
     <x v="3"/>
     <x v="18"/>
@@ -2188,7 +2541,7 @@
   <r>
     <x v="60"/>
     <x v="60"/>
-    <x v="6"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="0"/>
     <x v="18"/>
@@ -2198,8 +2551,8 @@
   <r>
     <x v="61"/>
     <x v="61"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="23"/>
     <m/>
@@ -2339,7 +2692,7 @@
     <x v="73"/>
     <x v="75"/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="4"/>
     <x v="29"/>
     <m/>
@@ -2389,7 +2742,7 @@
     <x v="75"/>
     <x v="80"/>
     <x v="3"/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="5"/>
     <x v="33"/>
     <m/>
@@ -2399,7 +2752,7 @@
     <x v="76"/>
     <x v="81"/>
     <x v="3"/>
-    <x v="10"/>
+    <x v="11"/>
     <x v="1"/>
     <x v="34"/>
     <m/>
@@ -2589,7 +2942,7 @@
     <x v="86"/>
     <x v="100"/>
     <x v="3"/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="4"/>
     <x v="41"/>
     <s v="remember"/>
@@ -2609,7 +2962,7 @@
     <x v="88"/>
     <x v="102"/>
     <x v="5"/>
-    <x v="11"/>
+    <x v="12"/>
     <x v="7"/>
     <x v="2"/>
     <m/>
@@ -2639,7 +2992,7 @@
     <x v="89"/>
     <x v="105"/>
     <x v="3"/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="4"/>
     <x v="12"/>
     <s v="shortest path"/>
@@ -2712,7 +3065,7 @@
     <x v="7"/>
     <x v="2"/>
     <x v="42"/>
-    <s v="line, points"/>
+    <s v="line, points, O(n^2)"/>
     <s v="maximum number of colinear points"/>
   </r>
   <r>
@@ -2739,7 +3092,7 @@
     <x v="92"/>
     <x v="115"/>
     <x v="1"/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="1"/>
     <x v="12"/>
     <s v="mst, kruskal"/>
@@ -2749,7 +3102,7 @@
     <x v="92"/>
     <x v="116"/>
     <x v="3"/>
-    <x v="12"/>
+    <x v="13"/>
     <x v="4"/>
     <x v="18"/>
     <s v="dp, optimization"/>
@@ -2768,96 +3121,6 @@
   <r>
     <x v="93"/>
     <x v="118"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="18"/>
-    <m/>
-    <s v="Annoying"/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="119"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="12"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="120"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="40"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="121"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="122"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="123"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="41"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="124"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="12"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="125"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="126"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="12"/>
-    <m/>
-    <s v="0-1 BFS"/>
-  </r>
-  <r>
-    <x v="94"/>
-    <x v="127"/>
     <x v="1"/>
     <x v="7"/>
     <x v="2"/>
@@ -2866,8 +3129,8 @@
     <m/>
   </r>
   <r>
-    <x v="94"/>
-    <x v="128"/>
+    <x v="93"/>
+    <x v="119"/>
     <x v="3"/>
     <x v="5"/>
     <x v="4"/>
@@ -2875,34 +3138,446 @@
     <s v="shortest path"/>
     <s v="length of shortest path from nearest zero"/>
   </r>
+  <r>
+    <x v="93"/>
+    <x v="120"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="39"/>
+    <m/>
+    <s v="minimum number of new walls to block the path"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="121"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="subarray, remember"/>
+    <m/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="122"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="33"/>
+    <s v="inclusion-exclusion principle"/>
+    <m/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="123"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="increasing order, subsequences"/>
+    <s v="number of strictly increasing subsequences of size k"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="124"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="jumping"/>
+    <m/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="125"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="prefix max"/>
+    <m/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="126"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="39"/>
+    <m/>
+    <s v="number of lit cells, cells may contain light bulbs or blocks"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="127"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="39"/>
+    <s v="largest square"/>
+    <s v="largest square containing all ones"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="128"/>
+    <x v="7"/>
+    <x v="15"/>
+    <x v="4"/>
+    <x v="12"/>
+    <s v="union find"/>
+    <s v="two participants can communicate if they have at least one language in common"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="129"/>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="intervals, good, O(n^2)"/>
+    <s v="only one job at a time, find the maximum profit "/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="130"/>
+    <x v="4"/>
+    <x v="17"/>
+    <x v="5"/>
+    <x v="39"/>
+    <s v="longest increasing path"/>
+    <s v="longest increasing path in a matrix, you can go in all four directions"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="131"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="18"/>
+    <m/>
+    <s v="find the minimum similarity score among all the substrings, score(c,d) = 4 * lcs(c,d) - c - d"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="132"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <m/>
+    <s v="find combination such that their sum is between ceil(w/2) and w"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="133"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <m/>
+    <s v="take out first or the last element from array and add it to the sum. try to make X"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="134"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="product, remember"/>
+    <s v="pair integers among two lists so that their sum of multiplication is maximum"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="135"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="simulation"/>
+    <s v="given tasks with id, queue time, and duration. at any time cpu chooses task with minimum duration. find the order of the tasks execution"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="136"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="18"/>
+    <m/>
+    <s v="#partitions (s = a + b + c) such that a + b, b + c, and c + a are all distinct"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="137"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="trie, segment tree"/>
+    <m/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="138"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="interval, cummulative, increment - decrement "/>
+    <s v="we need p_i during s_i to t_i time. we have total capacity of w, can we support?"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="139"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="39"/>
+    <s v="cummulative, counting"/>
+    <s v="queen can travel to right, down, diagonal right down any length but not over obstacle, find the number of possible paths to h, w"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="140"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="6"/>
+    <x v="40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="141"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="cummulative"/>
+    <s v="you can remove exactly one element to make sum of even and odd positions same. How many choices do you have?"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="142"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="143"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="interview"/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="144"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="18"/>
+    <m/>
+    <s v="Annoying"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="145"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="146"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="147"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="41"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="148"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="149"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="150"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="12"/>
+    <m/>
+    <s v="0-1 BFS"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="151"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="152"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="40"/>
+    <s v="cycle, permutation, catalan number"/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="153"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="154"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="155"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="gaps"/>
+    <s v="you can remove at most k integers, minimize the maximum gap between consecutive integers"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="156"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="157"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="158"/>
+    <x v="7"/>
+    <x v="20"/>
+    <x v="4"/>
+    <x v="12"/>
+    <s v="find cycles and their lengths"/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="159"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="40"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="160"/>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="recursion, two pointers"/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="161"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="sorting"/>
+    <m/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="162"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="40"/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2BA2CE6-8978-4743-BBE0-79525A79AA64}" name="PivotTable2" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B5:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2BA2CE6-8978-4743-BBE0-79525A79AA64}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B5:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="131">
+      <items count="165">
         <item x="0"/>
         <item x="1"/>
         <item x="42"/>
@@ -2914,7 +3589,7 @@
         <item x="15"/>
         <item x="17"/>
         <item x="16"/>
-        <item x="120"/>
+        <item x="156"/>
         <item x="33"/>
         <item x="25"/>
         <item x="75"/>
@@ -2924,7 +3599,7 @@
         <item x="38"/>
         <item x="65"/>
         <item x="83"/>
-        <item x="123"/>
+        <item x="147"/>
         <item x="32"/>
         <item x="64"/>
         <item x="70"/>
@@ -2937,7 +3612,7 @@
         <item x="88"/>
         <item x="45"/>
         <item x="73"/>
-        <item x="124"/>
+        <item x="148"/>
         <item x="59"/>
         <item x="93"/>
         <item x="57"/>
@@ -2961,7 +3636,7 @@
         <item x="81"/>
         <item x="48"/>
         <item x="27"/>
-        <item x="121"/>
+        <item x="145"/>
         <item x="52"/>
         <item x="41"/>
         <item x="79"/>
@@ -2977,7 +3652,7 @@
         <item x="90"/>
         <item x="3"/>
         <item x="76"/>
-        <item x="122"/>
+        <item x="146"/>
         <item x="106"/>
         <item x="72"/>
         <item x="87"/>
@@ -3003,7 +3678,7 @@
         <item x="84"/>
         <item x="49"/>
         <item x="4"/>
-        <item x="119"/>
+        <item x="154"/>
         <item x="14"/>
         <item x="21"/>
         <item x="46"/>
@@ -3011,11 +3686,11 @@
         <item x="31"/>
         <item x="47"/>
         <item x="100"/>
-        <item x="118"/>
-        <item x="125"/>
+        <item x="144"/>
+        <item x="149"/>
         <item x="101"/>
         <item x="103"/>
-        <item m="1" x="129"/>
+        <item x="162"/>
         <item x="102"/>
         <item x="107"/>
         <item x="104"/>
@@ -3024,31 +3699,66 @@
         <item x="110"/>
         <item x="111"/>
         <item x="109"/>
-        <item x="126"/>
+        <item x="150"/>
         <item x="112"/>
         <item x="114"/>
         <item x="113"/>
         <item x="115"/>
         <item x="116"/>
         <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="122"/>
+        <item x="121"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="151"/>
+        <item m="1" x="163"/>
+        <item x="153"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="159"/>
         <item x="127"/>
         <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="155"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="152"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="141"/>
+        <item x="140"/>
+        <item x="142"/>
+        <item x="160"/>
+        <item x="143"/>
+        <item x="161"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="12">
+      <items count="13">
         <item sd="0" x="3"/>
-        <item sd="0" m="1" x="10"/>
+        <item sd="0" m="1" x="11"/>
         <item sd="0" x="1"/>
         <item sd="0" x="0"/>
         <item sd="0" x="2"/>
         <item sd="0" x="6"/>
         <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
+        <item x="5"/>
         <item sd="0" x="8"/>
         <item sd="0" x="9"/>
         <item sd="0" x="7"/>
+        <item m="1" x="10"/>
         <item t="default" sd="0"/>
       </items>
       <autoSortScope>
@@ -3062,20 +3772,29 @@
       </autoSortScope>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="14">
+      <items count="23">
         <item sd="0" x="1"/>
         <item sd="0" x="7"/>
         <item sd="0" x="4"/>
         <item sd="0" x="3"/>
-        <item x="0"/>
-        <item sd="0" x="9"/>
-        <item x="11"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="10"/>
+        <item x="12"/>
         <item sd="0" x="5"/>
-        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
         <item sd="0" x="6"/>
-        <item sd="0" x="2"/>
-        <item x="12"/>
+        <item x="2"/>
+        <item sd="0" x="13"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item sd="0" x="16"/>
         <item x="8"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item m="1" x="21"/>
+        <item x="20"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3083,7 +3802,7 @@
     <pivotField axis="axisPage" showAll="0">
       <items count="53">
         <item x="2"/>
-        <item m="1" x="48"/>
+        <item m="1" x="45"/>
         <item x="4"/>
         <item x="3"/>
         <item x="0"/>
@@ -3091,27 +3810,27 @@
         <item x="5"/>
         <item x="1"/>
         <item x="6"/>
-        <item m="1" x="49"/>
+        <item m="1" x="51"/>
         <item x="7"/>
         <item x="8"/>
-        <item m="1" x="45"/>
+        <item m="1" x="48"/>
         <item x="9"/>
         <item x="10"/>
         <item x="37"/>
-        <item m="1" x="43"/>
+        <item m="1" x="46"/>
         <item x="32"/>
         <item x="12"/>
-        <item m="1" x="46"/>
+        <item m="1" x="44"/>
         <item x="13"/>
         <item x="29"/>
-        <item m="1" x="51"/>
+        <item m="1" x="47"/>
         <item x="38"/>
         <item x="14"/>
         <item x="15"/>
         <item m="1" x="50"/>
         <item x="33"/>
         <item x="36"/>
-        <item m="1" x="47"/>
+        <item m="1" x="49"/>
         <item x="30"/>
         <item x="16"/>
         <item x="34"/>
@@ -3125,7 +3844,7 @@
         <item x="18"/>
         <item x="27"/>
         <item x="23"/>
-        <item m="1" x="44"/>
+        <item m="1" x="43"/>
         <item x="24"/>
         <item x="25"/>
         <item x="40"/>
@@ -3145,7 +3864,7 @@
     <field x="3"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
@@ -3159,22 +3878,37 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="7"/>
     </i>
-    <i>
-      <x v="8"/>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="113"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="131"/>
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -3202,8 +3936,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DA485BD-9E5E-4153-BC4F-C3D227AD9F12}" name="PivotTable1" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B2:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DA485BD-9E5E-4153-BC4F-C3D227AD9F12}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B2:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="15">
@@ -3249,7 +3983,7 @@
     <field x="0"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -3267,6 +4001,9 @@
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -3291,20 +4028,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BA84C95-A1E3-4745-ABCD-9A23CB86BFF2}" name="entries" displayName="entries" ref="B2:I134" totalsRowCount="1" tableBorderDxfId="15">
-  <autoFilter ref="B2:I133" xr:uid="{A32FE18D-2266-4655-8147-C9AD3D5DB989}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I129">
-    <sortCondition ref="B2:B129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BA84C95-A1E3-4745-ABCD-9A23CB86BFF2}" name="entries" displayName="entries" ref="B2:I165" tableBorderDxfId="13">
+  <autoFilter ref="B2:I165" xr:uid="{A32FE18D-2266-4655-8147-C9AD3D5DB989}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I165">
+    <sortCondition ref="B2:B165"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="5" xr3:uid="{1F58498A-5B19-4EDC-8FB5-1942E1A9C51E}" name="Date" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{553C517B-CB40-4AFB-ACE0-9464F2EE5EFF}" name="Title" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{37BE3213-F99F-4E12-B6B9-D086849153D6}" name="paradigm" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{46FACEB2-F3DF-417D-B587-13761CC01A60}" name="technique" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B775A145-EE4E-4B4B-84BC-CCA2B5DEFFA0}" name="Points" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{082C0323-8CA7-4DD9-90FE-FB531F178012}" name="Topics" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{3A33BEE7-096F-4A26-87F3-2C597E1B7CB9}" name="Tags" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{6E3A450C-80A3-4247-8B47-C985E1DC39C7}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{1F58498A-5B19-4EDC-8FB5-1942E1A9C51E}" name="Date" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{553C517B-CB40-4AFB-ACE0-9464F2EE5EFF}" name="Title" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{37BE3213-F99F-4E12-B6B9-D086849153D6}" name="paradigm" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{46FACEB2-F3DF-417D-B587-13761CC01A60}" name="technique" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B775A145-EE4E-4B4B-84BC-CCA2B5DEFFA0}" name="Points" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{082C0323-8CA7-4DD9-90FE-FB531F178012}" name="Topics" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{3A33BEE7-096F-4A26-87F3-2C597E1B7CB9}" name="Tags" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{6E3A450C-80A3-4247-8B47-C985E1DC39C7}" name="Description" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3619,7 +4356,10 @@
   <threadedComment ref="C104" dT="2020-10-22T03:22:09.17" personId="{33724646-1F5A-47B5-9829-E0B3001E1B84}" id="{015AAFD4-D68F-4275-ACE6-86FCAB5B2AC8}">
     <text>I feel like an idiot for not able to get the logic right away. :(</text>
   </threadedComment>
-  <threadedComment ref="C128" dT="2020-10-21T13:32:06.62" personId="{33724646-1F5A-47B5-9829-E0B3001E1B84}" id="{1D7DFC07-A562-4B58-A72A-FD0B35D7156F}">
+  <threadedComment ref="C137" dT="2020-11-17T03:39:44.29" personId="{33724646-1F5A-47B5-9829-E0B3001E1B84}" id="{88101367-5C00-404C-87D3-0EE8C53F6062}">
+    <text>I don't understand how this is working?</text>
+  </threadedComment>
+  <threadedComment ref="C152" dT="2020-10-21T13:32:06.62" personId="{33724646-1F5A-47B5-9829-E0B3001E1B84}" id="{1D7DFC07-A562-4B58-A72A-FD0B35D7156F}">
     <text>Interesting question</text>
   </threadedComment>
 </ThreadedComments>
@@ -3627,22 +4367,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B7739E-DF56-410A-9EEE-E54AFEFED738}">
-  <dimension ref="B2:I134"/>
+  <dimension ref="B2:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
@@ -3667,884 +4407,890 @@
         <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="27">
+      <c r="B3" s="25">
         <v>44037</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
         <v>1500</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="29"/>
+        <v>10</v>
+      </c>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="27">
+      <c r="B4" s="25">
         <v>44038</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8">
         <v>1500</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="30"/>
+        <v>13</v>
+      </c>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <v>44039</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="19" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7">
         <v>1500</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="29"/>
+        <v>16</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="12">
         <v>44040</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="8">
         <v>1500</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <v>44041</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="7">
         <v>2000</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="25">
+        <v>44042</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="27">
-        <v>44042</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
         <v>1500</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="27">
+      <c r="B9" s="25">
         <v>44043</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="7">
         <v>1500</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="29"/>
+        <v>16</v>
+      </c>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="12">
         <v>44044</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
         <v>1500</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="12">
         <v>44045</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7">
         <v>1500</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="29"/>
+        <v>26</v>
+      </c>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="12">
         <v>44046</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
         <v>1500</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="27">
+      <c r="B13" s="25">
         <v>44047</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="7">
         <v>1500</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="12">
         <v>44048</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
         <v>1500</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="30"/>
+        <v>31</v>
+      </c>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="12">
         <v>44049</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7">
         <v>1500</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="29"/>
+        <v>31</v>
+      </c>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="12">
         <v>44050</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
         <v>2000</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="27">
+        <v>34</v>
+      </c>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="25">
         <v>44051</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7">
         <v>1500</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="27">
+        <v>36</v>
+      </c>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="25">
         <v>44052</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8">
         <v>1500</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="27">
+        <v>38</v>
+      </c>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="25">
         <v>44053</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7">
         <v>1500</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="27">
+        <v>38</v>
+      </c>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="25">
         <v>44054</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8">
         <v>1500</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="2:8">
+        <v>38</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>44055</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="7">
         <v>1500</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="29"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="27">
+        <v>38</v>
+      </c>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="25">
         <v>44056</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="F22" s="8">
         <v>1500</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="27">
+        <v>36</v>
+      </c>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="25">
         <v>44057</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7">
         <v>1500</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="27">
+        <v>38</v>
+      </c>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="25">
         <v>44058</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F24" s="8">
         <v>1500</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="27">
+        <v>36</v>
+      </c>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="25">
         <v>44059</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="F25" s="7">
         <v>1500</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="27">
+        <v>36</v>
+      </c>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="25">
         <v>44060</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8">
         <v>2000</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="27">
+        <v>25</v>
+      </c>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="25">
         <v>44061</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7">
         <v>1500</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="29"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="27">
+        <v>25</v>
+      </c>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="25">
         <v>44062</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8">
         <v>1500</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="2:8">
+        <v>25</v>
+      </c>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="12">
         <v>44063</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="7">
         <v>1500</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" spans="2:8">
+        <v>25</v>
+      </c>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="12">
         <v>44064</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8">
         <v>1500</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="30"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="27">
+        <v>25</v>
+      </c>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="25">
         <v>44065</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="7">
         <v>2000</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" spans="2:8">
+        <v>55</v>
+      </c>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="12">
         <v>44066</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8">
         <v>1600</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="H32" s="28"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="12">
         <v>44067</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F33" s="7">
         <v>1500</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="27">
+      <c r="B34" s="25">
         <v>44068</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>21</v>
+      <c r="C34" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="F34" s="8">
         <v>1500</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="27">
+      <c r="B35" s="25">
         <v>44069</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>21</v>
+      <c r="C35" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="F35" s="7">
         <v>1500</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="29"/>
+        <v>61</v>
+      </c>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="27">
+      <c r="B36" s="25">
         <v>44070</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F36" s="8">
         <v>1500</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="27">
+      <c r="B37" s="25">
         <v>44071</v>
       </c>
-      <c r="C37" s="35" t="s">
-        <v>59</v>
+      <c r="C37" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="F37" s="7">
         <v>2000</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>217</v>
+        <v>61</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="12">
         <v>44072</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>60</v>
+      <c r="C38" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8">
         <v>1600</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>212</v>
+        <v>12</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="27">
+      <c r="B39" s="25">
         <v>44073</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>61</v>
+      <c r="C39" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="7">
         <v>1500</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>195</v>
+        <v>9</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="27">
+      <c r="B40" s="25">
         <v>44074</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F40" s="8">
         <v>2000</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="27">
+      <c r="B41" s="25">
         <v>44075</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41" s="7">
         <v>1500</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>218</v>
+        <v>73</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="27">
+      <c r="B42" s="25">
         <v>44076</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8">
         <v>1000</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="12">
         <v>44077</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="7">
         <v>1000</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="H43" s="27"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="12">
         <v>44078</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8">
         <v>2000</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="H44" s="28"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="27">
+      <c r="B45" s="25">
         <v>44079</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="7">
         <v>1500</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="12">
         <v>44080</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8">
         <v>2000</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -4552,64 +5298,68 @@
         <v>44081</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F47" s="7">
         <v>1500</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="29"/>
+        <v>45</v>
+      </c>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="27">
+      <c r="B48" s="25">
         <v>44082</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F48" s="8">
         <v>1500</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="27">
+      <c r="B49" s="25">
         <v>44083</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="7">
         <v>2000</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H49" s="29"/>
+        <v>85</v>
+      </c>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="27">
+      <c r="B50" s="25">
         <v>44084</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -4617,33 +5367,33 @@
         <v>2000</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="H50" s="28"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="27">
+      <c r="B51" s="25">
         <v>44085</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="D51" s="17"/>
       <c r="E51" s="8"/>
       <c r="F51" s="7">
         <v>2000</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H51" s="29"/>
+        <v>45</v>
+      </c>
+      <c r="H51" s="27"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="27">
+      <c r="B52" s="25">
         <v>44086</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -4651,16 +5401,16 @@
         <v>1500</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="H52" s="28"/>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="27">
+      <c r="B53" s="25">
         <v>44087</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="8"/>
@@ -4668,16 +5418,16 @@
         <v>1500</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" s="29"/>
+        <v>90</v>
+      </c>
+      <c r="H53" s="27"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="27">
+      <c r="B54" s="25">
         <v>44088</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -4685,186 +5435,202 @@
         <v>1500</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H54" s="30"/>
+        <v>92</v>
+      </c>
+      <c r="H54" s="28"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="27">
+      <c r="B55" s="25">
         <v>44089</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="19"/>
+        <v>93</v>
+      </c>
+      <c r="D55" s="17"/>
       <c r="E55" s="8"/>
       <c r="F55" s="7">
         <v>1500</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H55" s="29"/>
+        <v>94</v>
+      </c>
+      <c r="H55" s="27"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="27">
+      <c r="B56" s="25">
         <v>44090</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="F56" s="8">
         <v>1500</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="30"/>
+        <v>97</v>
+      </c>
+      <c r="H56" s="28"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="27">
+      <c r="B57" s="25">
         <v>44091</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="D57" s="17"/>
       <c r="E57" s="8"/>
       <c r="F57" s="7">
         <v>1500</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="29"/>
+        <v>97</v>
+      </c>
+      <c r="H57" s="27"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="27">
+      <c r="B58" s="25">
         <v>44092</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="20"/>
+        <v>99</v>
+      </c>
+      <c r="D58" s="18"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8">
         <v>1500</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58" s="30"/>
+        <v>97</v>
+      </c>
+      <c r="H58" s="28"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="27">
+      <c r="B59" s="25">
         <v>44093</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="F59" s="7">
         <v>1500</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H59" s="29"/>
+        <v>85</v>
+      </c>
+      <c r="H59" s="27"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="27">
+      <c r="B60" s="25">
         <v>44094</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8">
         <v>1000</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H60" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="H60" s="28"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="27">
+      <c r="B61" s="25">
         <v>44095</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="D61" s="17"/>
       <c r="E61" s="8"/>
       <c r="F61" s="7">
         <v>2000</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="29"/>
+        <v>85</v>
+      </c>
+      <c r="H61" s="27"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="27">
+      <c r="B62" s="25">
         <v>44096</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="20"/>
+        <v>104</v>
+      </c>
+      <c r="D62" s="18"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8">
         <v>1500</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H62" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="H62" s="28"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="27">
+      <c r="B63" s="25">
         <v>44097</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E63" s="8"/>
       <c r="F63" s="7">
         <v>1500</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H63" s="29"/>
+        <v>85</v>
+      </c>
+      <c r="H63" s="27"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="27">
+      <c r="B64" s="25">
         <v>44098</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="F64" s="8">
         <v>2000</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H64" s="30"/>
+        <v>107</v>
+      </c>
+      <c r="H64" s="28"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="27">
+      <c r="B65" s="25">
         <v>44099</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="8"/>
@@ -4872,16 +5638,16 @@
         <v>1500</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="29"/>
+        <v>38</v>
+      </c>
+      <c r="H65" s="27"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="27">
+      <c r="B66" s="25">
         <v>44100</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -4889,16 +5655,16 @@
         <v>1500</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="H66" s="28"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="27">
+      <c r="B67" s="25">
         <v>44101</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="8"/>
@@ -4906,16 +5672,16 @@
         <v>1500</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H67" s="29"/>
+        <v>111</v>
+      </c>
+      <c r="H67" s="27"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="27">
+      <c r="B68" s="25">
         <v>44102</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -4923,16 +5689,16 @@
         <v>1500</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="H68" s="28"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="27">
+      <c r="B69" s="25">
         <v>44103</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="8"/>
@@ -4940,16 +5706,16 @@
         <v>1500</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H69" s="29"/>
+        <v>114</v>
+      </c>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="27">
+      <c r="B70" s="25">
         <v>44104</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -4957,16 +5723,16 @@
         <v>1500</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H70" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="H70" s="28"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="27">
+      <c r="B71" s="25">
         <v>44105</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="8"/>
@@ -4974,16 +5740,16 @@
         <v>1500</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="29"/>
+        <v>12</v>
+      </c>
+      <c r="H71" s="27"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="27">
+      <c r="B72" s="25">
         <v>44106</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -4991,16 +5757,16 @@
         <v>1500</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="30"/>
+        <v>9</v>
+      </c>
+      <c r="H72" s="28"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="27">
+      <c r="B73" s="25">
         <v>44107</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8"/>
@@ -5008,16 +5774,16 @@
         <v>1500</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H73" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="27">
+      <c r="B74" s="25">
         <v>44108</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -5025,16 +5791,16 @@
         <v>1500</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H74" s="30"/>
+        <v>122</v>
+      </c>
+      <c r="H74" s="28"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="27">
+      <c r="B75" s="25">
         <v>44109</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="8"/>
@@ -5042,16 +5808,16 @@
         <v>1500</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="29"/>
+        <v>16</v>
+      </c>
+      <c r="H75" s="27"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="27">
+      <c r="B76" s="25">
         <v>44110</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="8"/>
@@ -5059,16 +5825,16 @@
         <v>1700</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="H76" s="28"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="16">
+      <c r="B77" s="14">
         <v>44110</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="8"/>
@@ -5076,202 +5842,202 @@
         <v>1700</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="30"/>
+        <v>9</v>
+      </c>
+      <c r="H77" s="28"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="16">
+      <c r="B78" s="14">
         <v>44110</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="F78" s="10">
         <v>1700</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H78" s="30"/>
+        <v>128</v>
+      </c>
+      <c r="H78" s="28"/>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="16">
+      <c r="B79" s="14">
         <v>44111</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F79" s="10">
         <v>1500</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H79" s="30"/>
+        <v>130</v>
+      </c>
+      <c r="H79" s="28"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="17">
+      <c r="B80" s="15">
         <v>44111</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="F80" s="8">
         <v>1500</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H80" s="30"/>
+        <v>43</v>
+      </c>
+      <c r="H80" s="28"/>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="16">
+      <c r="B81" s="14">
         <v>44111</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="10">
         <v>2000</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H81" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="H81" s="28"/>
       <c r="I81" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="16">
+      <c r="B82" s="14">
         <v>44112</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>8</v>
+      <c r="C82" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="10">
         <v>1600</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H82" s="30"/>
+        <v>135</v>
+      </c>
+      <c r="H82" s="28"/>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="16">
+      <c r="B83" s="14">
         <v>44112</v>
       </c>
-      <c r="C83" s="28" t="s">
-        <v>122</v>
+      <c r="C83" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="F83" s="10">
         <v>1800</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H83" s="30"/>
+        <v>137</v>
+      </c>
+      <c r="H83" s="28"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="16">
+      <c r="B84" s="14">
         <v>44113</v>
       </c>
-      <c r="C84" s="28" t="s">
-        <v>124</v>
+      <c r="C84" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="F84" s="10">
         <v>2000</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H84" s="30"/>
+        <v>140</v>
+      </c>
+      <c r="H84" s="28"/>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="16">
+      <c r="B85" s="14">
         <v>44114</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="10">
         <v>1600</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>184</v>
+        <v>142</v>
+      </c>
+      <c r="H85" s="28" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="16">
+      <c r="B86" s="14">
         <v>44115</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="10">
         <v>1800</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H86" s="30"/>
+        <v>144</v>
+      </c>
+      <c r="H86" s="28"/>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="16">
+      <c r="B87" s="14">
         <v>44115</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="8"/>
@@ -5279,51 +6045,51 @@
         <v>2000</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H87" s="30"/>
+        <v>146</v>
+      </c>
+      <c r="H87" s="28"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="16">
+      <c r="B88" s="14">
         <v>44115</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="8"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H88" s="30"/>
+        <v>148</v>
+      </c>
+      <c r="H88" s="28"/>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="16">
+      <c r="B89" s="14">
         <v>44116</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="10">
         <v>1600</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="30"/>
+        <v>15</v>
+      </c>
+      <c r="H89" s="28"/>
       <c r="I89" s="13"/>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="16">
+      <c r="B90" s="14">
         <v>44116</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="8"/>
@@ -5331,198 +6097,198 @@
         <v>1600</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H90" s="30"/>
+        <v>107</v>
+      </c>
+      <c r="H90" s="28"/>
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="2:9">
-      <c r="B91" s="16">
+      <c r="B91" s="14">
         <v>44117</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F91" s="10">
         <v>1600</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H91" s="28"/>
       <c r="I91" s="13"/>
     </row>
     <row r="92" spans="2:9">
-      <c r="B92" s="16">
+      <c r="B92" s="14">
         <v>44118</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="10">
         <v>1700</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H92" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="H92" s="28"/>
       <c r="I92" s="13"/>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="16">
+      <c r="B93" s="14">
         <v>44118</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93" s="10">
         <v>1700</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H93" s="30"/>
+        <v>155</v>
+      </c>
+      <c r="H93" s="28"/>
       <c r="I93" s="13"/>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="16">
+      <c r="B94" s="14">
         <v>44118</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="10">
         <v>1600</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H94" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="H94" s="28"/>
       <c r="I94" s="13" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="2:9">
-      <c r="B95" s="16">
+      <c r="B95" s="14">
         <v>44118</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="10">
         <v>1700</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H95" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="H95" s="28"/>
     </row>
     <row r="96" spans="2:9">
-      <c r="B96" s="16">
+      <c r="B96" s="14">
         <v>44119</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="10">
         <v>1600</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="H96" s="28"/>
       <c r="I96" s="13"/>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="16">
+      <c r="B97" s="14">
         <v>44119</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="10">
         <v>1700</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="H97" s="28"/>
       <c r="I97" s="13"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="16">
+      <c r="B98" s="14">
         <v>44120</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H98" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="H98" s="28"/>
       <c r="I98" s="13"/>
     </row>
     <row r="99" spans="2:9">
-      <c r="B99" s="16">
+      <c r="B99" s="14">
         <v>44121</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10">
         <v>1600</v>
       </c>
       <c r="G99" s="10"/>
-      <c r="H99" s="30"/>
+      <c r="H99" s="28"/>
       <c r="I99" s="13"/>
     </row>
     <row r="100" spans="2:9">
-      <c r="B100" s="16">
+      <c r="B100" s="14">
         <v>44121</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -5530,723 +6296,1405 @@
         <v>1700</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H100" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="H100" s="28"/>
       <c r="I100" s="13"/>
     </row>
     <row r="101" spans="2:9">
-      <c r="B101" s="16">
+      <c r="B101" s="14">
         <v>44122</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="10">
         <v>1700</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H101" s="28"/>
       <c r="I101" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="2:9">
-      <c r="B102" s="16">
+      <c r="B102" s="14">
         <v>44122</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10">
         <v>2000</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="29" t="s">
         <v>168</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="2:9">
-      <c r="B103" s="16">
+      <c r="B103" s="14">
         <v>44124</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>170</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="F103" s="10">
         <v>1700</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H103" s="31" t="s">
         <v>171</v>
       </c>
+      <c r="H103" s="29" t="s">
+        <v>172</v>
+      </c>
       <c r="I103" s="13"/>
     </row>
     <row r="104" spans="2:9">
-      <c r="B104" s="16">
+      <c r="B104" s="14">
         <v>44126</v>
       </c>
-      <c r="C104" s="28" t="s">
-        <v>176</v>
+      <c r="C104" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10">
         <v>1600</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H104" s="28"/>
       <c r="I104" s="13"/>
     </row>
     <row r="105" spans="2:9">
-      <c r="B105" s="16">
+      <c r="B105" s="14">
         <v>44127</v>
       </c>
-      <c r="C105" s="28" t="s">
-        <v>182</v>
+      <c r="C105" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" s="10">
         <v>1650</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H105" s="28"/>
       <c r="I105" s="13"/>
     </row>
     <row r="106" spans="2:9">
-      <c r="B106" s="16">
+      <c r="B106" s="14">
         <v>44127</v>
       </c>
-      <c r="C106" s="28" t="s">
-        <v>177</v>
+      <c r="C106" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F106" s="10">
         <v>1600</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H106" s="30"/>
+        <v>155</v>
+      </c>
+      <c r="H106" s="28"/>
       <c r="I106" s="13"/>
     </row>
     <row r="107" spans="2:9">
-      <c r="B107" s="16">
+      <c r="B107" s="14">
         <v>44128</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="F107" s="10">
         <v>1650</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H107" s="30"/>
+        <v>171</v>
+      </c>
+      <c r="H107" s="28"/>
       <c r="I107" s="13"/>
     </row>
     <row r="108" spans="2:9">
-      <c r="B108" s="16">
+      <c r="B108" s="14">
         <v>44128</v>
       </c>
-      <c r="C108" s="28" t="s">
-        <v>187</v>
+      <c r="C108" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="F108" s="10">
         <v>1700</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H108" s="30" t="s">
-        <v>188</v>
+        <v>61</v>
+      </c>
+      <c r="H108" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="2:9">
-      <c r="B109" s="16">
+      <c r="B109" s="14">
         <v>44128</v>
       </c>
-      <c r="C109" s="28" t="s">
-        <v>146</v>
+      <c r="C109" s="26" t="s">
+        <v>180</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F109" s="10">
         <v>2000</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H109" s="30" t="s">
-        <v>211</v>
+        <v>85</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>181</v>
       </c>
       <c r="I109" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="2:9">
-      <c r="B110" s="16">
+      <c r="B110" s="14">
         <v>44128</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>183</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F110" s="10">
         <v>1700</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H110" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H110" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I110" s="13"/>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="14">
+        <v>44130</v>
+      </c>
+      <c r="C111" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="I110" s="13"/>
-    </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="16">
-        <v>44130</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>191</v>
-      </c>
       <c r="D111" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="F111" s="10">
         <v>2000</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H111" s="30" t="s">
-        <v>193</v>
+        <v>171</v>
+      </c>
+      <c r="H111" s="28" t="s">
+        <v>185</v>
       </c>
       <c r="I111" s="13"/>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112" s="16">
+      <c r="B112" s="14">
         <v>44130</v>
       </c>
-      <c r="C112" s="28" t="s">
-        <v>198</v>
+      <c r="C112" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="F112" s="10">
         <v>1800</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H112" s="30" t="s">
-        <v>199</v>
+        <v>155</v>
+      </c>
+      <c r="H112" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="I112" s="13"/>
     </row>
     <row r="113" spans="2:9">
-      <c r="B113" s="16">
+      <c r="B113" s="14">
         <v>44130</v>
       </c>
-      <c r="C113" s="28" t="s">
-        <v>194</v>
+      <c r="C113" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F113" s="10">
         <v>1800</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H113" s="30" t="s">
-        <v>195</v>
+        <v>16</v>
+      </c>
+      <c r="H113" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="2:9">
-      <c r="B114" s="16">
+      <c r="B114" s="14">
         <v>44130</v>
       </c>
-      <c r="C114" s="28" t="s">
-        <v>197</v>
+      <c r="C114" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F114" s="10">
         <v>1800</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H114" s="28"/>
       <c r="I114" s="13"/>
     </row>
     <row r="115" spans="2:9">
-      <c r="B115" s="16">
+      <c r="B115" s="14">
         <v>44134</v>
       </c>
-      <c r="C115" s="28" t="s">
-        <v>202</v>
+      <c r="C115" s="26" t="s">
+        <v>191</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F115" s="10">
         <v>1600</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H115" s="30" t="s">
-        <v>204</v>
+        <v>192</v>
+      </c>
+      <c r="H115" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="2:9">
-      <c r="B116" s="16">
+      <c r="B116" s="14">
         <v>44134</v>
       </c>
-      <c r="C116" s="28" t="s">
-        <v>207</v>
+      <c r="C116" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10">
         <v>1700</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H116" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="H116" s="28"/>
       <c r="I116" s="13" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="2:9">
-      <c r="B117" s="16">
+      <c r="B117" s="14">
         <v>44134</v>
       </c>
-      <c r="C117" s="28" t="s">
-        <v>206</v>
+      <c r="C117" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10">
         <v>1700</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H117" s="30" t="s">
-        <v>220</v>
+        <v>16</v>
+      </c>
+      <c r="H117" s="28" t="s">
+        <v>198</v>
       </c>
       <c r="I117" s="13"/>
     </row>
     <row r="118" spans="2:9">
-      <c r="B118" s="16">
+      <c r="B118" s="14">
         <v>44135</v>
       </c>
-      <c r="C118" s="28" t="s">
-        <v>208</v>
+      <c r="C118" s="26" t="s">
+        <v>199</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="F118" s="10">
         <v>2000</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H118" s="30" t="s">
-        <v>221</v>
+        <v>61</v>
+      </c>
+      <c r="H118" s="28" t="s">
+        <v>200</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="2:9">
-      <c r="B119" s="16">
+      <c r="B119" s="14">
         <v>44135</v>
       </c>
-      <c r="C119" s="28" t="s">
-        <v>222</v>
+      <c r="C119" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F119" s="10">
         <v>1700</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H119" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="I119" s="38" t="s">
-        <v>223</v>
+        <v>85</v>
+      </c>
+      <c r="H119" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I119" s="36" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="2:9">
-      <c r="B120" s="16">
+      <c r="B120" s="14">
         <v>44135</v>
       </c>
-      <c r="C120" s="28" t="s">
-        <v>226</v>
+      <c r="C120" s="26" t="s">
+        <v>205</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10">
         <v>2000</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H120" s="30"/>
-      <c r="I120" s="38"/>
+        <v>85</v>
+      </c>
+      <c r="H120" s="28"/>
+      <c r="I120" s="36"/>
     </row>
     <row r="121" spans="2:9">
-      <c r="B121" s="16"/>
-      <c r="C121" s="9" t="s">
-        <v>173</v>
+      <c r="B121" s="14">
+        <v>44136</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E121" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="F121" s="10">
         <v>1600</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H121" s="30"/>
-      <c r="I121" s="13" t="s">
-        <v>174</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H121" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="I121" s="13"/>
     </row>
     <row r="122" spans="2:9">
-      <c r="B122" s="16"/>
-      <c r="C122" s="9" t="s">
-        <v>160</v>
+      <c r="B122" s="14">
+        <v>44136</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>219</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F122" s="10">
+        <v>1700</v>
+      </c>
       <c r="G122" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H122" s="30"/>
-      <c r="I122" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="H122" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="123" spans="2:9">
-      <c r="B123" s="16"/>
+      <c r="B123" s="14">
+        <v>44136</v>
+      </c>
       <c r="C123" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="13"/>
+        <v>221</v>
+      </c>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F123" s="10">
+        <v>1900</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H123" s="28"/>
+      <c r="I123" s="13" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="124" spans="2:9">
-      <c r="B124" s="16"/>
-      <c r="C124" s="9" t="s">
-        <v>148</v>
+      <c r="B124" s="14">
+        <v>44140</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H124" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I124" s="13"/>
     </row>
     <row r="125" spans="2:9">
-      <c r="B125" s="17"/>
-      <c r="C125" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D125" s="10"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
+      <c r="B125" s="15">
+        <v>44140</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F125" s="8">
+        <v>1700</v>
+      </c>
       <c r="G125" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H125" s="30"/>
+        <v>137</v>
+      </c>
+      <c r="H125" s="28" t="s">
+        <v>225</v>
+      </c>
       <c r="I125" s="13"/>
     </row>
     <row r="126" spans="2:9">
-      <c r="B126" s="17"/>
+      <c r="B126" s="15">
+        <v>44141</v>
+      </c>
       <c r="C126" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D126" s="10"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
+        <v>228</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="8">
+        <v>1700</v>
+      </c>
       <c r="G126" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H126" s="30"/>
-      <c r="I126" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="H126" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="127" spans="2:9">
-      <c r="B127" s="17"/>
+      <c r="B127" s="15">
+        <v>44141</v>
+      </c>
       <c r="C127" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D127" s="10"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
+        <v>231</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="8">
+        <v>1700</v>
+      </c>
       <c r="G127" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H127" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H127" s="28" t="s">
+        <v>198</v>
+      </c>
       <c r="I127" s="13"/>
     </row>
     <row r="128" spans="2:9">
-      <c r="B128" s="17"/>
-      <c r="C128" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D128" s="10"/>
-      <c r="E128" s="8"/>
+      <c r="B128" s="15">
+        <v>44143</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="F128" s="8">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H128" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H128" s="28" t="s">
+        <v>237</v>
+      </c>
       <c r="I128" s="13"/>
     </row>
     <row r="129" spans="2:9">
-      <c r="B129" s="17"/>
-      <c r="C129" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D129" s="10"/>
-      <c r="E129" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="B129" s="15">
+        <v>44143</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="8"/>
       <c r="F129" s="8">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H129" s="30"/>
+        <v>155</v>
+      </c>
+      <c r="H129" s="28"/>
       <c r="I129" s="13" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="2:9">
-      <c r="B130" s="16">
-        <v>44136</v>
-      </c>
-      <c r="C130" s="28" t="s">
-        <v>228</v>
+      <c r="B130" s="14">
+        <v>44144</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>241</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F130" s="10">
         <v>1600</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H130" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="I130" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="H130" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="131" spans="2:9">
-      <c r="B131" s="16">
-        <v>44136</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>230</v>
+      <c r="B131" s="14">
+        <v>44144</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>244</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="F131" s="10">
         <v>1700</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H131" s="30" t="s">
-        <v>188</v>
+        <v>61</v>
+      </c>
+      <c r="H131" s="28" t="s">
+        <v>245</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="2:9">
-      <c r="B132" s="16">
-        <v>44136</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D132" s="10"/>
+      <c r="B132" s="14">
+        <v>44145</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E132" s="10" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="F132" s="10">
         <v>1900</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H132" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="H132" s="28" t="s">
+        <v>248</v>
+      </c>
       <c r="I132" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133" s="14">
+        <v>44146</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F133" s="10">
+        <v>1800</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H133" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="14">
+        <v>44151</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10">
+        <v>1800</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H134" s="28"/>
+      <c r="I134" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="14">
+        <v>44151</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10">
+        <v>1700</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H135" s="28"/>
+      <c r="I135" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" s="14">
+        <v>44151</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10">
+        <v>1700</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="28"/>
+      <c r="I136" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137" s="14">
+        <v>44152</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10">
+        <v>1700</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" s="14">
+        <v>44153</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F138" s="10">
+        <v>1700</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="14">
+        <v>44153</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10">
+        <v>1650</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H139" s="28"/>
+      <c r="I139" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="B140" s="14">
+        <v>44156</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="I140" s="13"/>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="B141" s="14">
+        <v>44160</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" s="10">
+        <v>1900</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="B142" s="14">
+        <v>44162</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" s="10">
+        <v>1800</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H142" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="I142" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" s="14">
+        <v>44165</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="13"/>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="B144" s="14">
+        <v>44166</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" s="10">
+        <v>1700</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="14">
+        <v>44166</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="28"/>
+      <c r="I145" s="13"/>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="14">
+        <v>44174</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F146" s="10">
+        <v>1500</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="I146" s="13"/>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="14"/>
+      <c r="C147" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10">
+        <v>1600</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H147" s="28"/>
+      <c r="I147" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="14"/>
+      <c r="C148" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="28"/>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="14"/>
+      <c r="C149" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H149" s="28"/>
+      <c r="I149" s="13"/>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="14"/>
+      <c r="C150" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H150" s="28"/>
+      <c r="I150" s="13"/>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" s="14"/>
+      <c r="C151" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H151" s="28"/>
+      <c r="I151" s="13"/>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="14"/>
+      <c r="C152" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10">
+        <v>1900</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H152" s="28"/>
+      <c r="I152" s="13"/>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="14"/>
+      <c r="C153" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H153" s="28"/>
+      <c r="I153" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" s="14"/>
+      <c r="C154" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="13"/>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" s="14"/>
+      <c r="C155" s="26" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="133" spans="2:9">
-      <c r="B133" s="16"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="30"/>
-      <c r="I133" s="13"/>
-    </row>
-    <row r="134" spans="2:9">
-      <c r="B134" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C134" s="14">
-        <f>SUBTOTAL(103,entries[Title])</f>
-        <v>130</v>
-      </c>
-      <c r="D134" s="14"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13">
-        <f>SUBTOTAL(101,entries[Points])</f>
-        <v>1640.6504065040651</v>
-      </c>
-      <c r="H134" s="15"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="I155" s="13"/>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="B156" s="14"/>
+      <c r="C156" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F156" s="10">
+        <v>1800</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" s="28"/>
+      <c r="I156" s="13"/>
+    </row>
+    <row r="157" spans="2:9">
+      <c r="B157" s="14"/>
+      <c r="C157" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H157" s="28"/>
+      <c r="I157" s="13"/>
+    </row>
+    <row r="158" spans="2:9">
+      <c r="B158" s="14"/>
+      <c r="C158" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10">
+        <v>1800</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9">
+      <c r="B159" s="14"/>
+      <c r="C159" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="28"/>
+      <c r="I159" s="13"/>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="B160" s="14"/>
+      <c r="C160" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="28"/>
+      <c r="I160" s="13"/>
+    </row>
+    <row r="161" spans="2:9">
+      <c r="B161" s="14"/>
+      <c r="C161" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F161" s="10">
+        <v>1700</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H161" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="I161" s="13"/>
+    </row>
+    <row r="162" spans="2:9">
+      <c r="B162" s="14"/>
+      <c r="C162" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G162" s="10"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="13"/>
+    </row>
+    <row r="163" spans="2:9">
+      <c r="B163" s="14"/>
+      <c r="C163" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F163" s="10">
+        <v>1600</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="I163" s="13"/>
+    </row>
+    <row r="164" spans="2:9">
+      <c r="B164" s="14"/>
+      <c r="C164" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="I164" s="13"/>
+    </row>
+    <row r="165" spans="2:9">
+      <c r="B165" s="14"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="28"/>
+      <c r="I165" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
@@ -6261,15 +7709,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G134">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="hard">
-      <formula>NOT(ISERROR(SEARCH("hard",G134)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C106" r:id="rId1" xr:uid="{04420BA1-D1D2-44AF-AB06-F578F3541FE0}"/>
     <hyperlink ref="C104" r:id="rId2" xr:uid="{3E4A4957-0302-4A29-896D-A797AA758E37}"/>
-    <hyperlink ref="C128" r:id="rId3" xr:uid="{70FB2A89-EFF3-46BC-B585-6A40FE18554F}"/>
+    <hyperlink ref="C152" r:id="rId3" xr:uid="{70FB2A89-EFF3-46BC-B585-6A40FE18554F}"/>
     <hyperlink ref="C105" r:id="rId4" xr:uid="{050AACF3-AFF9-45E4-ADCA-0669724F88C6}"/>
     <hyperlink ref="C109" r:id="rId5" xr:uid="{0EFAF6B5-1E87-4F13-B384-D4CA49405E37}"/>
     <hyperlink ref="C108" r:id="rId6" xr:uid="{029459C0-6C7F-4C93-A8B7-9EA5758E63C0}"/>
@@ -6278,7 +7721,7 @@
     <hyperlink ref="C113" r:id="rId9" xr:uid="{7B759F2F-CF9B-4ED0-B00D-B98FF4327CD1}"/>
     <hyperlink ref="C114" r:id="rId10" xr:uid="{1FEC98F4-D14E-40D8-95CC-5FB8862F5191}"/>
     <hyperlink ref="C112" r:id="rId11" xr:uid="{22190D44-0B9A-4979-8AF6-21637F5B6AE5}"/>
-    <hyperlink ref="C129" r:id="rId12" xr:uid="{7025425B-F8BE-4F6E-B6C9-3A32BC472F66}"/>
+    <hyperlink ref="C153" r:id="rId12" xr:uid="{7025425B-F8BE-4F6E-B6C9-3A32BC472F66}"/>
     <hyperlink ref="C117" r:id="rId13" xr:uid="{E95E36AC-72D8-42C4-89A5-199DF3C456CF}"/>
     <hyperlink ref="C116" r:id="rId14" xr:uid="{3DBB368A-AF86-4EDD-863B-B3A4075C44B5}"/>
     <hyperlink ref="C38" r:id="rId15" xr:uid="{966CC7DD-0FAE-451B-B464-EBCE7E7E06A2}"/>
@@ -6290,29 +7733,49 @@
     <hyperlink ref="C115" r:id="rId21" xr:uid="{50B565DA-8D23-4E0D-A1B2-4D11B88F57B8}"/>
     <hyperlink ref="C119" r:id="rId22" xr:uid="{74A59EA8-225C-4C56-B0CC-B128A331F124}"/>
     <hyperlink ref="I119" r:id="rId23" xr:uid="{923B7E7B-199E-4F74-A77B-72100BA78A85}"/>
-    <hyperlink ref="C130" r:id="rId24" xr:uid="{06820DC2-FC21-46CB-8463-6E8447BC58CA}"/>
-    <hyperlink ref="C131" r:id="rId25" xr:uid="{5E219AA7-82C8-43AD-A218-8DA9EE80FB5F}"/>
+    <hyperlink ref="C121" r:id="rId24" xr:uid="{06820DC2-FC21-46CB-8463-6E8447BC58CA}"/>
+    <hyperlink ref="C122" r:id="rId25" xr:uid="{5E219AA7-82C8-43AD-A218-8DA9EE80FB5F}"/>
+    <hyperlink ref="C125" r:id="rId26" xr:uid="{8CBFC2EB-FBB9-48D3-B9EE-F7ADE9F0D26F}"/>
+    <hyperlink ref="C124" r:id="rId27" xr:uid="{922ED28C-1999-4164-9E46-C3F71ACE13AB}"/>
+    <hyperlink ref="C155" r:id="rId28" display="Planaer Edges" xr:uid="{07082A62-C428-432B-A1A4-210583BEF9BE}"/>
+    <hyperlink ref="C156" r:id="rId29" xr:uid="{0239FFB3-37F2-44BF-BBDC-E08CE8740AA8}"/>
+    <hyperlink ref="C128" r:id="rId30" xr:uid="{ED9EA795-9AEF-4913-8490-5404F6A0CFC0}"/>
+    <hyperlink ref="C129" r:id="rId31" xr:uid="{758A7589-8A6D-4CF5-8C94-F34C223CB320}"/>
+    <hyperlink ref="C162" r:id="rId32" xr:uid="{720ED8CC-3D87-41CF-8B7D-C0E5716A7C50}"/>
+    <hyperlink ref="C130" r:id="rId33" xr:uid="{167EF297-9540-4F8D-8D7D-DA973743811D}"/>
+    <hyperlink ref="C131" r:id="rId34" xr:uid="{97D0B1CE-378A-49BF-93A8-5047AE9F409D}"/>
+    <hyperlink ref="C132" r:id="rId35" xr:uid="{9F354252-02CC-4A86-BCAE-CF0C31AADE5E}"/>
+    <hyperlink ref="C133" r:id="rId36" xr:uid="{6A2C68DB-5131-4D4D-937E-B15A71675C8A}"/>
+    <hyperlink ref="C134" r:id="rId37" xr:uid="{21B4BB6E-1E23-4F3B-9FF5-73E622E813BA}"/>
+    <hyperlink ref="C137" r:id="rId38" xr:uid="{755F9929-A7BF-4049-9FE2-4D7AA5B4E12C}"/>
+    <hyperlink ref="C138" r:id="rId39" xr:uid="{37B73185-B1ED-4331-9976-81A68FDB18F7}"/>
+    <hyperlink ref="C139" r:id="rId40" xr:uid="{0E76B5B9-BFE1-4D1B-975F-E681572D2658}"/>
+    <hyperlink ref="C140" r:id="rId41" xr:uid="{742C77C7-038D-4B33-A101-8EECE4D9C4DE}"/>
+    <hyperlink ref="C160" r:id="rId42" xr:uid="{951C45FD-4A7E-40FF-ADAE-5F4C4CA6ADCD}"/>
+    <hyperlink ref="C141" r:id="rId43" xr:uid="{D6672009-5689-422E-A161-16F96CA161CD}"/>
+    <hyperlink ref="C142" r:id="rId44" xr:uid="{5250BD2C-E6F1-4DC2-968C-07EB0E800C15}"/>
+    <hyperlink ref="C164" r:id="rId45" xr:uid="{F53BCECB-A26B-4AD0-B432-73D6C4F4BF0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
+  <legacyDrawing r:id="rId47"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27C111E-595D-415E-96DB-9CC20FFF337E}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -6321,111 +7784,151 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="23" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="26">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="26">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="26">
+      <c r="C20" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="26">
-        <v>129</v>
+    <row r="21" spans="2:3">
+      <c r="B21" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="24">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6434,11 +7937,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7FF364-B992-4B89-81E6-33BA6CD1D097}">
+  <dimension ref="B2:I3"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="37"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="37" cm="1">
+        <f t="array" ref="B2:I3">_xlfn._xlws.FILTER(entries[], entries[technique]="two pointers","")</f>
+        <v>44090</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Sort Colors</v>
+      </c>
+      <c r="D2" t="str">
+        <v>greedy</v>
+      </c>
+      <c r="E2" t="str">
+        <v>two pointers</v>
+      </c>
+      <c r="F2">
+        <v>1500</v>
+      </c>
+      <c r="G2" t="str">
+        <v>sort, search</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Longest substring with at least k characters</v>
+      </c>
+      <c r="D3" t="str">
+        <v>divide &amp; conquer</v>
+      </c>
+      <c r="E3" t="str">
+        <v>two pointers</v>
+      </c>
+      <c r="F3">
+        <v>1600</v>
+      </c>
+      <c r="G3" t="str">
+        <v>array</v>
+      </c>
+      <c r="H3" t="str">
+        <v>recursion, two pointers</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C41960-43FA-40D6-ABC6-4E0FBFE083D9}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6448,67 +8025,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="24" t="s">
-        <v>156</v>
+      <c r="B2" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="26">
-        <v>9</v>
+      <c r="B3" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="24">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="26">
+      <c r="B4" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="24">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="26">
+      <c r="B5" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="24">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="26">
+      <c r="B6" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="24">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="B7" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="24">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="26">
-        <v>2</v>
+      <c r="B8" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="24">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="26">
-        <v>129</v>
+      <c r="B9" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="24">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
